--- a/qa_data.xlsx
+++ b/qa_data.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
